--- a/data/trans_camb/P27A_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_7-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,17 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -777,12 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-40,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,12 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-65,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,33; 93,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 150,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-73,31; 115,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 278,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,21; 549,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 648,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 108,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 108,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 97,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 74,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>144,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 159,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 160,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,13; 146,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 173,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 12,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 7,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-52,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-56,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 165,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-86,56; 369,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 126,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-83,61; 311,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 178,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 312,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 34,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 69,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 33,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 69,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
